--- a/data/Tickers.xlsx
+++ b/data/Tickers.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Dropbox\Code\R\Projects\Financialization - Asset pricing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyb14214\Dropbox\Code\R\Projects\TDA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Tickers" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tickers!$A$1:$J$34</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="96">
-  <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="97">
   <si>
     <t>C A Comdty</t>
   </si>
@@ -86,9 +83,6 @@
     <t>LBA Comdty</t>
   </si>
   <si>
-    <t xml:space="preserve">Wheat-SR </t>
-  </si>
-  <si>
     <t>HGA Comdty</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t>S&amp;P 500</t>
   </si>
   <si>
-    <t>Active_ticker</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -215,63 +206,12 @@
     <t>XLME</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Grains</t>
-  </si>
-  <si>
-    <t>Livestock</t>
-  </si>
-  <si>
-    <t>Softs</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Metals</t>
-  </si>
-  <si>
-    <t>Subsector</t>
-  </si>
-  <si>
-    <t>Industrial</t>
-  </si>
-  <si>
-    <t>Precious</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Agriculturals</t>
-  </si>
-  <si>
-    <t>Petroleum</t>
-  </si>
-  <si>
-    <t>Asset_class</t>
-  </si>
-  <si>
-    <t>Commodity</t>
-  </si>
-  <si>
-    <t>Calendar</t>
-  </si>
-  <si>
     <t>UnitedStates/NYSE</t>
   </si>
   <si>
     <t>UnitedKingdom/Metals</t>
   </si>
   <si>
-    <t>Market</t>
-  </si>
-  <si>
     <t>CFTC</t>
   </si>
   <si>
@@ -311,7 +251,73 @@
     <t>Crude oil</t>
   </si>
   <si>
-    <t>Index</t>
+    <t>market</t>
+  </si>
+  <si>
+    <t>active contract ticker</t>
+  </si>
+  <si>
+    <t>asset class</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>subsector</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>agriculturals</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>metals</t>
+  </si>
+  <si>
+    <t>grains</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>livestock</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>precious</t>
+  </si>
+  <si>
+    <t>softs</t>
+  </si>
+  <si>
+    <t>Wheat-SRW</t>
+  </si>
+  <si>
+    <t>XCEC</t>
   </si>
 </sst>
 </file>
@@ -711,34 +717,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
         <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -749,28 +755,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -781,28 +787,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -813,28 +819,28 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -845,28 +851,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -877,28 +883,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -909,28 +915,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -941,28 +947,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -973,28 +979,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1005,28 +1011,28 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1037,28 +1043,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1069,28 +1075,28 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1101,28 +1107,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1133,28 +1139,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1165,28 +1171,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1197,28 +1203,28 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1229,28 +1235,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1261,28 +1267,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1293,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
         <v>67</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1325,28 +1331,28 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1357,28 +1363,28 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1389,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1421,28 +1427,28 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1453,28 +1459,28 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1485,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1517,28 +1523,28 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
         <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1549,28 +1555,28 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1581,28 +1587,28 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1613,28 +1619,28 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1645,28 +1651,28 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1677,28 +1683,28 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1709,28 +1715,28 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,28 +1747,28 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1773,28 +1779,28 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
